--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/project/YingVickyCao.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08013FB5-4CC0-0846-81D8-A72B7F6962F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B9E48-55E7-E64E-AB1C-266209E57374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" xr2:uid="{959FD4B4-62C4-424D-B809-C452233DF31C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{959FD4B4-62C4-424D-B809-C452233DF31C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Android应用性能优化最佳实践" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,12 +101,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +149,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA08E2C-46EA-8F4C-978B-16426F60FF17}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -674,14 +695,1061 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54735CA0-4484-9C47-8C04-EF5E4EE1CB84}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <f>SUM(A1:A207)</f>
+        <v>7</v>
+      </c>
+      <c r="C1" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1" s="5">
+        <f>B1/C1</f>
+        <v>3.3816425120772944E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B9E48-55E7-E64E-AB1C-266209E57374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9737D40-1CEF-9D4E-8C67-F0F821FDCF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{959FD4B4-62C4-424D-B809-C452233DF31C}"/>
+    <workbookView xWindow="-38400" yWindow="-1660" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{959FD4B4-62C4-424D-B809-C452233DF31C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -697,171 +697,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54735CA0-4484-9C47-8C04-EF5E4EE1CB84}">
   <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4">
         <f>SUM(A1:A207)</f>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3">
         <v>207</v>
       </c>
       <c r="D1" s="5">
         <f>B1/C1</f>
-        <v>3.3816425120772944E-2</v>
+        <v>0.17874396135265699</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9737D40-1CEF-9D4E-8C67-F0F821FDCF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFE6BF1-7F69-DE41-BC00-B7B68C2C2216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1660" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{959FD4B4-62C4-424D-B809-C452233DF31C}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54735CA0-4484-9C47-8C04-EF5E4EE1CB84}">
   <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -709,14 +709,14 @@
       </c>
       <c r="B1" s="4">
         <f>SUM(A1:A207)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3">
         <v>207</v>
       </c>
       <c r="D1" s="5">
         <f>B1/C1</f>
-        <v>0.17874396135265699</v>
+        <v>0.19323671497584541</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,17 +1541,17 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFE6BF1-7F69-DE41-BC00-B7B68C2C2216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883CC731-24D4-EA44-9E13-FA61F2D30A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1660" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{959FD4B4-62C4-424D-B809-C452233DF31C}"/>
+    <workbookView xWindow="-38400" yWindow="-1160" windowWidth="38400" windowHeight="23500" xr2:uid="{959FD4B4-62C4-424D-B809-C452233DF31C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>https://time.geekbang.org/column/article/40961</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,6 +65,9 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6个月学会任何一种外语</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA08E2C-46EA-8F4C-978B-16426F60FF17}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -668,20 +671,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>241</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D23" si="0">B4/C4</f>
+        <v>0.30290456431535268</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
       <c r="U18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
       <c r="U19" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -697,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54735CA0-4484-9C47-8C04-EF5E4EE1CB84}">
   <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883CC731-24D4-EA44-9E13-FA61F2D30A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8829F59C-2D82-0942-90E3-828ABD5C0C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1160" windowWidth="38400" windowHeight="23500" xr2:uid="{959FD4B4-62C4-424D-B809-C452233DF31C}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -676,14 +676,14 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>241</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D23" si="0">B4/C4</f>
-        <v>0.30290456431535268</v>
+        <v>0.31535269709543567</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8829F59C-2D82-0942-90E3-828ABD5C0C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E00D2-EE99-4B47-8241-17DB21F73255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1160" windowWidth="38400" windowHeight="23500" xr2:uid="{959FD4B4-62C4-424D-B809-C452233DF31C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://time.geekbang.org/column/article/40961</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,11 +63,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>6个月学会任何一种外语</t>
   </si>
   <si>
-    <t>6个月学会任何一种外语</t>
+    <t xml:space="preserve"> The Linux Command Line 中文版</t>
+  </si>
+  <si>
+    <t>第三章：文件系统中跳转</t>
   </si>
 </sst>
 </file>
@@ -615,15 +617,15 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -638,7 +640,7 @@
         <v>3.1479538300104928E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -653,7 +655,7 @@
         <v>1.444043321299639E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -667,13 +669,13 @@
         <f>B3/C3</f>
         <v>8.771929824561403E-2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>76</v>
@@ -682,47 +684,59 @@
         <v>241</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D23" si="0">B4/C4</f>
+        <f t="shared" ref="D4:D5" si="0">B4/C4</f>
         <v>0.31535269709543567</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
@@ -755,7 +769,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{FCB3A152-A9A2-8D4C-9AAB-A1DD684374CF}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{FCB3A152-A9A2-8D4C-9AAB-A1DD684374CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
